--- a/Tareas iniciativa portafolios.xlsx
+++ b/Tareas iniciativa portafolios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santiago.orozco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA194A-47B7-4920-98CB-9D27338578FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1256FD1A-E521-4B66-9EB1-1F2F4919AFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E2BE8F5-EED9-4005-B7F5-FE32AAE15A7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Acciones</t>
   </si>
@@ -204,13 +204,25 @@
   </si>
   <si>
     <t>Realizar dashboard en Data Studio o Power Bi para visualizar y entender de manera general y detallada cada uno de los modelos realizados y los respectivos resultados</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>Jueves 3</t>
+  </si>
+  <si>
+    <t>Santi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +241,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -255,36 +274,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,292 +634,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336EEBFF-E264-4B66-95DE-9E52EAE2EF47}">
   <dimension ref="B3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23" style="5" customWidth="1"/>
-    <col min="4" max="4" width="69.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="33">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="E4:E12"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tareas iniciativa portafolios.xlsx
+++ b/Tareas iniciativa portafolios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santiago.orozco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santiago.orozco\Documents\DesarrolloPortafoliosPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1256FD1A-E521-4B66-9EB1-1F2F4919AFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE150D5-D425-4EF5-82B7-65092F37A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5E2BE8F5-EED9-4005-B7F5-FE32AAE15A7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Acciones</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Santi</t>
+  </si>
+  <si>
+    <t>Omar y Gabriel</t>
   </si>
 </sst>
 </file>
@@ -295,27 +298,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336EEBFF-E264-4B66-95DE-9E52EAE2EF47}">
   <dimension ref="B3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +648,7 @@
     <col min="4" max="4" width="69.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -669,14 +672,14 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -684,102 +687,102 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -787,162 +790,164 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
